--- a/config_1.5/rank_server.xlsx
+++ b/config_1.5/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="261">
   <si>
     <t>id|</t>
   </si>
@@ -1176,6 +1176,18 @@
   </si>
   <si>
     <t>prop_dz_jz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlqd_xxphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1240,7 +1252,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1336,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1509,6 +1527,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1786,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2710,6 +2746,42 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1609804800</v>
+      </c>
+      <c r="F26" s="64">
+        <v>1610380799</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="63">
+        <v>25</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63">
+        <v>25</v>
+      </c>
+      <c r="L26" s="63">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2719,11 +2791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3388,6 +3460,34 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="65">
+        <v>25</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="65">
+        <v>25</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="65">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3397,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,6 +4053,40 @@
         <v>255</v>
       </c>
       <c r="E32" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="65">
+        <v>26</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="65">
+        <v>9</v>
+      </c>
+      <c r="E33" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="65">
+        <v>26</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="65">
         <v>2</v>
       </c>
     </row>
@@ -4062,11 +4196,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4655,6 +4789,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="65">
+        <v>25</v>
+      </c>
+      <c r="B26" s="65">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65">
+        <v>20</v>
+      </c>
+      <c r="D26" s="65">
+        <v>100</v>
+      </c>
+      <c r="E26" s="65">
+        <v>20</v>
+      </c>
+      <c r="F26" s="65">
+        <v>180</v>
+      </c>
+      <c r="G26" s="65">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4663,11 +4820,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4998,6 +5155,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="65">
+        <v>23</v>
+      </c>
+      <c r="B24" s="65">
+        <v>27</v>
+      </c>
+      <c r="C24" s="65">
+        <v>1</v>
+      </c>
+      <c r="D24" s="65">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5007,11 +5178,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5345,6 +5516,17 @@
         <v>1609775999</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="65">
+        <v>27</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="64">
+        <v>1610380799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5353,11 +5535,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8709,6 +8891,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="65">
+        <v>150</v>
+      </c>
+      <c r="B151" s="65">
+        <v>23</v>
+      </c>
+      <c r="C151" s="65">
+        <v>1</v>
+      </c>
+      <c r="D151" s="65">
+        <v>1</v>
+      </c>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65">
+        <v>135</v>
+      </c>
+      <c r="H151" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="65">
+        <v>151</v>
+      </c>
+      <c r="B152" s="65">
+        <v>23</v>
+      </c>
+      <c r="C152" s="65">
+        <v>2</v>
+      </c>
+      <c r="D152" s="65">
+        <v>2</v>
+      </c>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65">
+        <v>136</v>
+      </c>
+      <c r="H152" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="65">
+        <v>152</v>
+      </c>
+      <c r="B153" s="65">
+        <v>23</v>
+      </c>
+      <c r="C153" s="65">
+        <v>3</v>
+      </c>
+      <c r="D153" s="65">
+        <v>3</v>
+      </c>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65">
+        <v>137</v>
+      </c>
+      <c r="H153" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="65">
+        <v>153</v>
+      </c>
+      <c r="B154" s="65">
+        <v>23</v>
+      </c>
+      <c r="C154" s="65">
+        <v>4</v>
+      </c>
+      <c r="D154" s="65">
+        <v>6</v>
+      </c>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65">
+        <v>138</v>
+      </c>
+      <c r="H154" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="65">
+        <v>154</v>
+      </c>
+      <c r="B155" s="65">
+        <v>23</v>
+      </c>
+      <c r="C155" s="65">
+        <v>7</v>
+      </c>
+      <c r="D155" s="65">
+        <v>10</v>
+      </c>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65">
+        <v>139</v>
+      </c>
+      <c r="H155" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="65">
+        <v>155</v>
+      </c>
+      <c r="B156" s="65">
+        <v>23</v>
+      </c>
+      <c r="C156" s="65">
+        <v>11</v>
+      </c>
+      <c r="D156" s="65">
+        <v>15</v>
+      </c>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65">
+        <v>140</v>
+      </c>
+      <c r="H156" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="65">
+        <v>156</v>
+      </c>
+      <c r="B157" s="65">
+        <v>23</v>
+      </c>
+      <c r="C157" s="65">
+        <v>16</v>
+      </c>
+      <c r="D157" s="65">
+        <v>20</v>
+      </c>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="65">
+        <v>141</v>
+      </c>
+      <c r="H157" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8718,11 +9054,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11500,6 +11836,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="65">
+        <v>139</v>
+      </c>
+      <c r="B140" s="65">
+        <v>135</v>
+      </c>
+      <c r="C140" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="65">
+        <v>100000</v>
+      </c>
+      <c r="F140" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="65">
+        <v>140</v>
+      </c>
+      <c r="B141" s="65">
+        <v>136</v>
+      </c>
+      <c r="C141" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" s="65">
+        <v>30000</v>
+      </c>
+      <c r="F141" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="65">
+        <v>141</v>
+      </c>
+      <c r="B142" s="65">
+        <v>137</v>
+      </c>
+      <c r="C142" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="65">
+        <v>10000</v>
+      </c>
+      <c r="F142" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="65">
+        <v>142</v>
+      </c>
+      <c r="B143" s="65">
+        <v>138</v>
+      </c>
+      <c r="C143" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="65">
+        <v>3000</v>
+      </c>
+      <c r="F143" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="65">
+        <v>143</v>
+      </c>
+      <c r="B144" s="65">
+        <v>139</v>
+      </c>
+      <c r="C144" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" s="65">
+        <v>2000</v>
+      </c>
+      <c r="F144" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="65">
+        <v>144</v>
+      </c>
+      <c r="B145" s="65">
+        <v>140</v>
+      </c>
+      <c r="C145" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="65">
+        <v>1000</v>
+      </c>
+      <c r="F145" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="65">
+        <v>145</v>
+      </c>
+      <c r="B146" s="65">
+        <v>141</v>
+      </c>
+      <c r="C146" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" s="65">
+        <v>500</v>
+      </c>
+      <c r="F146" s="65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
